--- a/bin/food_data.xlsx
+++ b/bin/food_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexij\Desktop\HackHealth\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232395AC-4CC0-4FD1-977D-349E699C348F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,145 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>stringbeans</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>brown rice</t>
+  </si>
+  <si>
+    <t>white rice</t>
+  </si>
+  <si>
+    <t>white bread</t>
+  </si>
+  <si>
+    <t>whole grain bread</t>
+  </si>
+  <si>
+    <t>grilled chicken</t>
+  </si>
+  <si>
+    <t>grilled steak</t>
+  </si>
+  <si>
+    <t>grilled pork chop</t>
+  </si>
+  <si>
+    <t>snickers</t>
+  </si>
+  <si>
+    <t>kit kat</t>
+  </si>
+  <si>
+    <t>chocolate ice cream</t>
+  </si>
+  <si>
+    <t>vanilla ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strawberry ice cream </t>
+  </si>
+  <si>
+    <t>chocolate cake</t>
+  </si>
+  <si>
+    <t>vanilla cake</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>fuze ice tea</t>
+  </si>
+  <si>
+    <t>orange fanta</t>
+  </si>
+  <si>
+    <t>minute made lemonade</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>veggie</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>calories</t>
+  </si>
+  <si>
+    <t>Carb (g)</t>
+  </si>
+  <si>
+    <t>Fat(g)</t>
+  </si>
+  <si>
+    <t>Protein(g)</t>
+  </si>
+  <si>
+    <t>C(mg)</t>
+  </si>
+  <si>
+    <t>sugar(g)</t>
+  </si>
+  <si>
+    <t>broccoli(boiled)</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +474,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="8" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>17.3</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>61.6</v>
+      </c>
+      <c r="C3">
+        <v>15.4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.23</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>69.7</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12.2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>51.4</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>6.7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G5">
+        <v>182</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6.9</v>
+      </c>
+      <c r="C7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7">
+        <v>8.4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>7.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bin/food_data.xlsx
+++ b/bin/food_data.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\HackHealth\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA02CF7-148B-439A-BB33-820DD2F8B7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1E064-F24D-499E-8324-744A5588178F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -242,7 +250,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -589,17 +597,17 @@
       <c r="E2">
         <v>0.3</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -624,16 +632,16 @@
       <c r="E3">
         <v>1.23</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>139</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
@@ -659,17 +667,17 @@
       <c r="E4">
         <v>2.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.01</v>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -694,17 +702,17 @@
       <c r="E5">
         <v>6.7</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.03</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.9400000000000004</v>
+      <c r="F5">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>303</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>494.00000000000006</v>
       </c>
       <c r="J5">
         <v>3.9</v>
@@ -729,11 +737,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.3</v>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -758,17 +772,17 @@
       <c r="E7">
         <v>5.3</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.77</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="I7" s="1">
-        <v>11.11</v>
+      <c r="F7">
+        <v>377</v>
+      </c>
+      <c r="G7">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>1111</v>
       </c>
       <c r="J7">
         <v>0.8</v>
@@ -793,17 +807,17 @@
       <c r="E8">
         <v>1.2</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.02</v>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
       <c r="J8">
         <v>6.1</v>
@@ -828,16 +842,16 @@
       <c r="E9">
         <v>7.4</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
@@ -863,16 +877,16 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
@@ -898,16 +912,16 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
@@ -933,17 +947,17 @@
       <c r="E12">
         <v>3.3</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.02</v>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -968,16 +982,16 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
@@ -1003,17 +1017,17 @@
       <c r="E14">
         <v>57</v>
       </c>
-      <c r="F14" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.01</v>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1038,16 +1052,16 @@
       <c r="E15">
         <v>58</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
@@ -1073,16 +1087,16 @@
       <c r="E16">
         <v>40</v>
       </c>
-      <c r="F16" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
@@ -1108,16 +1122,16 @@
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
@@ -1143,17 +1157,17 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.03</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
       </c>
       <c r="J18">
         <v>21</v>
@@ -1178,16 +1192,16 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
@@ -1213,16 +1227,16 @@
       <c r="E20">
         <v>3.7</v>
       </c>
-      <c r="F20" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="F20">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
@@ -1248,17 +1262,17 @@
       <c r="E21">
         <v>3.8</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.25</v>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
       </c>
       <c r="J21">
         <v>44</v>
@@ -1283,16 +1297,16 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="F22">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
@@ -1318,16 +1332,16 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
@@ -1353,16 +1367,16 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
@@ -1388,16 +1402,16 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
@@ -1423,16 +1437,16 @@
       <c r="E26">
         <v>0.2</v>
       </c>
-      <c r="F26" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>59</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
@@ -1458,16 +1472,16 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
@@ -1493,16 +1507,16 @@
       <c r="E28">
         <v>4.2</v>
       </c>
-      <c r="F28" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="F28">
+        <v>1.3</v>
+      </c>
+      <c r="G28">
+        <v>0.4</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
@@ -1528,17 +1542,17 @@
       <c r="E29">
         <v>1.8</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.05</v>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -1563,16 +1577,16 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
@@ -1598,16 +1612,16 @@
       <c r="E31">
         <v>50</v>
       </c>
-      <c r="F31" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
@@ -1633,20 +1647,20 @@
       <c r="E32">
         <v>11.6</v>
       </c>
-      <c r="F32" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.05</v>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
       </c>
       <c r="J32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="K32" t="s">
         <v>23</v>
@@ -1668,20 +1682,20 @@
       <c r="E33">
         <v>17</v>
       </c>
-      <c r="F33" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0.06</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="K33" t="s">
         <v>23</v>
@@ -1703,20 +1717,20 @@
       <c r="E34">
         <v>19</v>
       </c>
-      <c r="F34" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0.06</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="K34" t="s">
         <v>23</v>
@@ -1738,16 +1752,16 @@
       <c r="E35">
         <v>0.5</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" s="1">
@@ -1773,20 +1787,20 @@
       <c r="E36">
         <v>18</v>
       </c>
-      <c r="F36" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0.06</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="K36" t="s">
         <v>23</v>
@@ -1808,20 +1822,20 @@
       <c r="E37">
         <v>18</v>
       </c>
-      <c r="F37" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>0.05</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K37" t="s">
         <v>23</v>
